--- a/数据整理/stocks/A股/创业板/300566-激智科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300566-激智科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001490</t>
+          <t>001349</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富国企创新增长股票</t>
+          <t>富国改革动力混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.79</t>
+          <t>26.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1997</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162720</t>
+          <t>501065</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发创业板两年定期开放混合</t>
+          <t>汇添富经典成长定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41.21</t>
+          <t>14.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>73.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6926</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>33.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>63.23</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.92</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6501</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501065</t>
+          <t>001490</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富经典成长定期开放混合</t>
+          <t>汇添富国企创新增长股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>73.59</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2139</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001349</t>
+          <t>162720</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国改革动力混合</t>
+          <t>广发创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>41.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>89.40</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>4.23</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +786,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>100039</t>
+          <t>161040</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国通胀通缩主题混合</t>
+          <t>富国创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>83.17</t>
+          <t>33.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>76.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2144</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -734,26 +824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001490</t>
+          <t>001349</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富国企创新增长股票</t>
+          <t>富国改革动力混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>85.19</t>
+          <t>21.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8475</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -762,26 +862,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161838</t>
+          <t>009914</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华创业板两年定期开放混合</t>
+          <t>富国成长动力混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>95.86</t>
+          <t>19.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1597</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -790,26 +900,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009914</t>
+          <t>501065</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国成长动力混合</t>
+          <t>汇添富经典成长定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>76.00</t>
+          <t>15.18</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8106</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -828,15 +948,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>82.93</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>5.30</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5024</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501065</t>
+          <t>161838</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富经典成长定期开放混合</t>
+          <t>银华创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>85.45</t>
+          <t>9.97</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>95.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4496</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001349</t>
+          <t>162720</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国改革动力混合</t>
+          <t>广发创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.75</t>
+          <t>8.42</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8.44</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>77.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3334</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -902,25 +1052,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>161040</t>
+          <t>009092</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国创业板两年定期开放混合</t>
+          <t>富国新材料新能源混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>76.09</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2774</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009092</t>
+          <t>100039</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国新材料新能源混合</t>
+          <t>富国通胀通缩主题混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>89.78</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8.78</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2761</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>162720</t>
+          <t>001490</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广发创业板两年定期开放混合</t>
+          <t>汇添富国企创新增长股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>77.19</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2278</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300566-激智科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300566-激智科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8617</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3352</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8673</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5588</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3611</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009092</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300566-激智科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300566-激智科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1448,4 +1449,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3278</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2265</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>61.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300566-激智科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300566-激智科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1733,4 +1734,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300566-激智科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300566-激智科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1742,7 +1743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,17 +1754,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1773,14 +1794,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3973</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.63</v>
       </c>
     </row>
     <row r="3">
@@ -1789,14 +1832,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.13</v>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6494</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1805,14 +1870,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6414</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.1</v>
       </c>
     </row>
     <row r="5">
@@ -1821,13 +1908,455 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5930</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5930</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4092</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007965</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007966</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.13</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300566-激智科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300566-激智科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2255,7 +2256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2266,17 +2267,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2286,14 +2307,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.66</v>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3368</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2302,14 +2345,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.63</v>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3368</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2318,14 +2383,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.13</v>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2876</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2334,14 +2421,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>8.1</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="6">
@@ -2350,13 +2559,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.13</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300566-激智科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300566-激智科技.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,281 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001349</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国改革动力混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>26.72</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.30</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.1997</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.98</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501065</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富经典成长定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14.25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>73.59</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6926</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.66</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161040</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>33.86</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>63.23</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6501</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001490</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富国企创新增长股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.52</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.79</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2139</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>162720</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.92</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>41.21</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2007</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
+      <c r="D6" t="n">
+        <v>8.1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009092</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国新材料新能源混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.40</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1713</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.13</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -740,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -761,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -791,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161040</t>
+          <t>011138</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国创业板两年定期开放混合</t>
+          <t>广发聚鸿六个月持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>33.25</t>
+          <t>12.07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.09</t>
+          <t>93.49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.66</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2144</t>
+          <t>0.3368</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -829,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001349</t>
+          <t>011140</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国改革动力混合</t>
+          <t>广发聚鸿六个月持有期混合E</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.89</t>
+          <t>12.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.75</t>
+          <t>93.49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.44</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.8475</t>
+          <t>0.3368</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -867,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009914</t>
+          <t>162720</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国成长动力混合</t>
+          <t>广发创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>19.20</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.00</t>
+          <t>93.33</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.1597</t>
+          <t>0.2876</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -905,264 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501065</t>
+          <t>011139</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富经典成长定期开放混合</t>
+          <t>广发聚鸿六个月持有期混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15.18</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.45</t>
+          <t>93.49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8106</t>
+          <t>0.0179</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000940</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9.48</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>82.93</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5024</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161838</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>银华创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9.97</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>95.86</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4496</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
         <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>162720</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.42</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>77.19</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3334</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009092</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富国新材料新能源混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.78</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.78</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2774</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>100039</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国通胀通缩主题混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>83.17</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2761</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001490</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>汇添富国企创新增长股票</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>85.19</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2278</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1197,7 +817,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1227,32 +847,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161040</t>
+          <t>007731</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国创业板两年定期开放混合</t>
+          <t>民生加银持续成长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>40.21</t>
+          <t>40.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.27</t>
+          <t>94.56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8617</t>
+          <t>2.3973</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1265,36 +885,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001349</t>
+          <t>501078</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国改革动力混合</t>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.02</t>
+          <t>26.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>92.75</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3352</t>
+          <t>0.6494</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1303,36 +923,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009914</t>
+          <t>270028</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国成长动力混合</t>
+          <t>广发制造业精选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.14</t>
+          <t>31.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.32</t>
+          <t>87.86</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8673</t>
+          <t>0.6414</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1341,32 +961,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501078</t>
+          <t>011138</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+          <t>广发聚鸿六个月持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23.58</t>
+          <t>15.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.16</t>
+          <t>94.30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5588</t>
+          <t>0.5930</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1379,32 +999,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>162720</t>
+          <t>011140</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发创业板两年定期开放混合</t>
+          <t>广发聚鸿六个月持有期混合E</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>15.73</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.41</t>
+          <t>94.30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3611</t>
+          <t>0.5930</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1417,36 +1037,264 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009092</t>
+          <t>162720</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国新材料新能源混合</t>
+          <t>广发创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>11.12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.89</t>
+          <t>93.32</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1474</t>
+          <t>0.4092</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007965</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007966</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1744,7 +1592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1765,7 +1613,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1795,32 +1643,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007731</t>
+          <t>161040</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>民生加银持续成长混合A</t>
+          <t>富国创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>40.98</t>
+          <t>40.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>91.27</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.3973</t>
+          <t>1.8617</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1833,36 +1681,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501078</t>
+          <t>001349</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+          <t>富国改革动力混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>26.08</t>
+          <t>23.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>92.81</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6494</t>
+          <t>1.3352</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1871,36 +1719,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>270028</t>
+          <t>009914</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发制造业精选混合A</t>
+          <t>富国成长动力混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31.91</t>
+          <t>17.14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.86</t>
+          <t>93.32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6414</t>
+          <t>0.8673</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1909,32 +1757,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011138</t>
+          <t>501078</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发聚鸿六个月持有期混合A</t>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15.73</t>
+          <t>23.58</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>79.16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5930</t>
+          <t>0.5588</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1947,32 +1795,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011140</t>
+          <t>162720</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发聚鸿六个月持有期混合E</t>
+          <t>广发创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15.73</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>88.41</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5930</t>
+          <t>0.3611</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1985,264 +1833,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>162720</t>
+          <t>009092</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发创业板两年定期开放混合</t>
+          <t>富国新材料新能源混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.12</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.32</t>
+          <t>93.89</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4092</t>
+          <t>0.1474</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007965</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>民生加银品质消费股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.92</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1274</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002124</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发新兴产业精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.95</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1034</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010023</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>广发制造业精选混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>87.86</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0848</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011139</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>广发聚鸿六个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0328</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007732</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>民生加银持续成长混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.56</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0158</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007966</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>民生加银品质消费股票C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.92</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0079</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2256,7 +1876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2277,7 +1897,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2307,36 +1927,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011138</t>
+          <t>161040</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发聚鸿六个月持有期混合A</t>
+          <t>富国创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.07</t>
+          <t>33.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.49</t>
+          <t>76.09</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3368</t>
+          <t>2.2144</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2345,36 +1965,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011140</t>
+          <t>001349</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发聚鸿六个月持有期混合E</t>
+          <t>富国改革动力混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.07</t>
+          <t>21.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.49</t>
+          <t>89.75</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>8.44</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3368</t>
+          <t>1.8475</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2383,36 +2003,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>162720</t>
+          <t>009914</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发创业板两年定期开放混合</t>
+          <t>富国成长动力混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>19.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>76.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>6.04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2876</t>
+          <t>1.1597</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2421,36 +2041,264 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011139</t>
+          <t>501065</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发聚鸿六个月持有期混合C</t>
+          <t>汇添富经典成长定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>15.18</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.49</t>
+          <t>85.45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0179</t>
+          <t>0.8106</t>
         </is>
       </c>
       <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5024</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4496</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3334</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009092</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2774</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2761</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001490</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2278</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2464,128 +2312,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1997</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501065</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富经典成长定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6926</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6501</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001490</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2139</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.66</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>41.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009092</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.13</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300566-激智科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300566-激智科技.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.98</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>5.66</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>0.63</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>5.13</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>8.1</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.13</v>
       </c>
     </row>
@@ -583,6 +600,250 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6243</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2545</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>016616</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -790,7 +1051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1295,290 +1556,6 @@
       </c>
       <c r="H13" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>162720</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.44</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3278</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002124</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发新兴产业精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.89</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2265</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003495</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华弘尚灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.29</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>24.93</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0572</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003496</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华弘尚灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>24.93</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0189</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006009</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国融融银灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>61.91</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006010</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国融融银灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>61.91</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1643,36 +1620,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161040</t>
+          <t>162720</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国创业板两年定期开放混合</t>
+          <t>广发创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>40.21</t>
+          <t>10.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.27</t>
+          <t>94.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8617</t>
+          <t>0.3278</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1681,36 +1658,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001349</t>
+          <t>002124</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国改革动力混合</t>
+          <t>广发新兴产业精选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.02</t>
+          <t>9.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>91.03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3352</t>
+          <t>0.2265</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1719,36 +1696,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009914</t>
+          <t>003495</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国成长动力混合</t>
+          <t>鹏华弘尚灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.14</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.32</t>
+          <t>24.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8673</t>
+          <t>0.0572</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1757,36 +1734,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501078</t>
+          <t>003496</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+          <t>鹏华弘尚灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23.58</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.16</t>
+          <t>24.93</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5588</t>
+          <t>0.0189</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1795,36 +1772,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>162720</t>
+          <t>006009</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发创业板两年定期开放混合</t>
+          <t>国融融银灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.41</t>
+          <t>61.91</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3611</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1833,36 +1810,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009092</t>
+          <t>006010</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国新材料新能源混合</t>
+          <t>国融融银灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.89</t>
+          <t>61.91</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1474</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1871,6 +1848,290 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8617</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3352</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8673</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5588</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3611</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009092</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2306,7 +2567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300566-激智科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300566-激智科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>1.17</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.98</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>5.66</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>0.63</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>5.13</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>8.1</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.13</v>
       </c>
     </row>
@@ -600,6 +617,740 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4732</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3884</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3747</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华盛利混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3697</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3444</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>180013</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华领先策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011481</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发瑞锦一年定开混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013296</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015684</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华盛利混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>39.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011729</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银聚享混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011730</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银聚享混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011702</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>39.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>016616</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -843,7 +1594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1051,7 +1802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1556,290 +2307,6 @@
       </c>
       <c r="H13" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>162720</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.44</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3278</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002124</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发新兴产业精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.89</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2265</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003495</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华弘尚灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.29</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>24.93</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0572</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003496</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华弘尚灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>24.93</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0189</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006009</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国融融银灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>61.91</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006010</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国融融银灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>61.91</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1904,36 +2371,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161040</t>
+          <t>162720</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国创业板两年定期开放混合</t>
+          <t>广发创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>40.21</t>
+          <t>10.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.27</t>
+          <t>94.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8617</t>
+          <t>0.3278</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1942,36 +2409,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001349</t>
+          <t>002124</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国改革动力混合</t>
+          <t>广发新兴产业精选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.02</t>
+          <t>9.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>91.03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3352</t>
+          <t>0.2265</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1980,36 +2447,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009914</t>
+          <t>003495</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国成长动力混合</t>
+          <t>鹏华弘尚灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.14</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.32</t>
+          <t>24.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8673</t>
+          <t>0.0572</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2018,36 +2485,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501078</t>
+          <t>003496</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+          <t>鹏华弘尚灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23.58</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.16</t>
+          <t>24.93</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5588</t>
+          <t>0.0189</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2056,36 +2523,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>162720</t>
+          <t>006009</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发创业板两年定期开放混合</t>
+          <t>国融融银灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.41</t>
+          <t>61.91</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3611</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2094,36 +2561,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009092</t>
+          <t>006010</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国新材料新能源混合</t>
+          <t>国融融银灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.89</t>
+          <t>61.91</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1474</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2132,6 +2599,290 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8617</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3352</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8673</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5588</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3611</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009092</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2567,7 +3318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
